--- a/server/led_mac_data.xlsx
+++ b/server/led_mac_data.xlsx
@@ -439,10 +439,10 @@
         <v>17 led not blinking</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>b',\xbc\xbb\x054\xd0'</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -473,10 +473,10 @@
         <v>b',\xbc\xbb\x05!\x08'</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -754,7 +754,7 @@
         <v>b',\xbc\xbb\x06\x93\xb4'</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>

--- a/server/led_mac_data.xlsx
+++ b/server/led_mac_data.xlsx
@@ -1,41 +1,734 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_KRISH\Project-Flip5\server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56292ED-13C3-47BF-BD8E-B29A8F56801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="234">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>mac_arr</t>
+  </si>
+  <si>
+    <t>mac_byte</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>isMaster</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>KT-1</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 23, 36</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x17$'</t>
+  </si>
+  <si>
+    <t>17 led not blinking</t>
+  </si>
+  <si>
+    <t>KT-2</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 52, 208</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x054\xd0'</t>
+  </si>
+  <si>
+    <t>KT-3</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 33, 8</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05!\x08'</t>
+  </si>
+  <si>
+    <t>KT-4</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 54, 236</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x056\xec'</t>
+  </si>
+  <si>
+    <t>KT-5</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 159, 228</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9f\xe4'</t>
+  </si>
+  <si>
+    <t>KT-6</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 62, 252</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05&gt;\xfc'</t>
+  </si>
+  <si>
+    <t>switch connection not work</t>
+  </si>
+  <si>
+    <t>KT-7</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 42, 64</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06*@'</t>
+  </si>
+  <si>
+    <t>KT-8</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 56, 96</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x058`'</t>
+  </si>
+  <si>
+    <t>KT-9</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 141, 104</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x8dh'</t>
+  </si>
+  <si>
+    <t>KT-10</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 53, 64</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x055@'</t>
+  </si>
+  <si>
+    <t>KT-11</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 60, 196</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05&lt;\xc4'</t>
+  </si>
+  <si>
+    <t>KT-12</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 158, 220</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9e\xdc'</t>
+  </si>
+  <si>
+    <t>KT-13</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 42, 116</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07*t'</t>
+  </si>
+  <si>
+    <t>KT-14</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 135, 132</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x87\x84'</t>
+  </si>
+  <si>
+    <t>KT-15</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 52, 244</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x054\xf4'</t>
+  </si>
+  <si>
+    <t>KT-16</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 33, 240</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05!\xf0'</t>
+  </si>
+  <si>
+    <t>buzzer, relay not working</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>KT-17</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 54, 156</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x056\x9c'</t>
+  </si>
+  <si>
+    <t>KT-18</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 56, 160</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x058\xa0'</t>
+  </si>
+  <si>
+    <t>KT-19</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 147, 180</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x93\xb4'</t>
+  </si>
+  <si>
+    <t>KT-20</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 55, 172</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x057\xac'</t>
+  </si>
+  <si>
+    <t>strip led</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>KT-21</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 160, 80</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xa0P'</t>
+  </si>
+  <si>
+    <t>KT-22</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 148, 88</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x94X'</t>
+  </si>
+  <si>
+    <t>KT-23</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 147, 224</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x93\xe0'</t>
+  </si>
+  <si>
+    <t>KT-24</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 44, 36</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07,$'</t>
+  </si>
+  <si>
+    <t>KT-25</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 63, 44</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05?,'</t>
+  </si>
+  <si>
+    <t>relay not working</t>
+  </si>
+  <si>
+    <t>KT-26</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 158, 36</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9e$'</t>
+  </si>
+  <si>
+    <t>KT-27</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 35, 20</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05#\x14'</t>
+  </si>
+  <si>
+    <t>KT-28</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 84, 136</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06T\x88'</t>
+  </si>
+  <si>
+    <t>KT-29</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 145, 172</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x91\xac'</t>
+  </si>
+  <si>
+    <t>KT-30</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 55, 24</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x057\x18'</t>
+  </si>
+  <si>
+    <t>KT-31</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 27, 180</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x1b\xb4'</t>
+  </si>
+  <si>
+    <t>KT-32</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 46, 164</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07.\xa4'</t>
+  </si>
+  <si>
+    <t>KT-33</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 49, 112</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x051p'</t>
+  </si>
+  <si>
+    <t>KT-34</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 144, 240</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x90\xf0'</t>
+  </si>
+  <si>
+    <t>KT-35</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 235, 64</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xeb@'</t>
+  </si>
+  <si>
+    <t>KT-36</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 64, 140</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05@\x8c'</t>
+  </si>
+  <si>
+    <t>buzzer volume is low</t>
+  </si>
+  <si>
+    <t>KT-37</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 26, 148</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x1a\x94'</t>
+  </si>
+  <si>
+    <t>KT-38</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 36, 92</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07$\\'</t>
+  </si>
+  <si>
+    <t>KT-39</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 63, 16</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05?\x10'</t>
+  </si>
+  <si>
+    <t>KT-40</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 239, 140</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xef\x8c'</t>
+  </si>
+  <si>
+    <t>KT-41</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 159, 236</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9f\xec'</t>
+  </si>
+  <si>
+    <t>17 pin led not working</t>
+  </si>
+  <si>
+    <t>KT-42</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 146, 208</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x92\xd0'</t>
+  </si>
+  <si>
+    <t>KT-43</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 146, 204</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x92\xcc'</t>
+  </si>
+  <si>
+    <t>KT-44</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 34, 20</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07"\x14'</t>
+  </si>
+  <si>
+    <t>KT-45</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 22, 228</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x16\xe4'</t>
+  </si>
+  <si>
+    <t>KT-46</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 33, 28</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05!\x1c'</t>
+  </si>
+  <si>
+    <t>buzzer low volume</t>
+  </si>
+  <si>
+    <t>KT-47</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 148, 116</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x94t'</t>
+  </si>
+  <si>
+    <t>KT-48</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 55, 185</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x057\xb8'</t>
+  </si>
+  <si>
+    <t>KT-49</t>
+  </si>
+  <si>
+    <t>252, 232, 192, 214, 159, 240</t>
+  </si>
+  <si>
+    <t>b'\xfc\xe8\xc0\xd6\x9f\xf0'</t>
+  </si>
+  <si>
+    <t>button not working</t>
+  </si>
+  <si>
+    <t>KT-50</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 49, 172</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x051\xac'</t>
+  </si>
+  <si>
+    <t>Brownout detector was triggered</t>
+  </si>
+  <si>
+    <t>KT-51</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 224, 184</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\xe0\xb8'</t>
+  </si>
+  <si>
+    <t>KT-52</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 160, 188</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xa0\xbc'</t>
+  </si>
+  <si>
+    <t>reset button not working</t>
+  </si>
+  <si>
+    <t>KT-53</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 23, 200</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x17\xc8'</t>
+  </si>
+  <si>
+    <t>KT-54</t>
+  </si>
+  <si>
+    <t>252, 232, 192, 215, 90, 192</t>
+  </si>
+  <si>
+    <t>b'\xfc\xe8\xc0\xd7Z\xc0'</t>
+  </si>
+  <si>
+    <t>KT-55</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 32, 156</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07 \x9c'</t>
+  </si>
+  <si>
+    <t>KT-56</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 141, 248</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x8d\xf8'</t>
+  </si>
+  <si>
+    <t>KT-57</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 9, 208</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07\t\xd0'</t>
+  </si>
+  <si>
+    <t>KT-58</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 251, 12</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xfb\x0c'</t>
+  </si>
+  <si>
+    <t>KT-59</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 53, 32</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x075 '</t>
+  </si>
+  <si>
+    <t>KT-60</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 62, 84</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05&gt;T'</t>
+  </si>
+  <si>
+    <t>KT-61</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 49, 124</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x051|'</t>
+  </si>
+  <si>
+    <t>KT-62</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 160, 76</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\xa0L'</t>
+  </si>
+  <si>
+    <t>KT-63</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 66, 120</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05Bx'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> download not came restart button is not working</t>
+  </si>
+  <si>
+    <t>KT-64</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 57, 24</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x059\x18'</t>
+  </si>
+  <si>
+    <t>KT-65</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 159, 52</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9f4'</t>
+  </si>
+  <si>
+    <t>KT-66</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 6, 158, 48</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x06\x9e0'</t>
+  </si>
+  <si>
+    <t>boot not working</t>
+  </si>
+  <si>
+    <t>KT-67</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 24, 204</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x18\xcc'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buzzer low volume and relay </t>
+  </si>
+  <si>
+    <t>KT-68</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 50, 236</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x072\xec'</t>
+  </si>
+  <si>
+    <t>KT-69</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 7, 47, 247</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x07/\xf8'</t>
+  </si>
+  <si>
+    <t>KT-70</t>
+  </si>
+  <si>
+    <t>44, 188, 187, 5, 27, 136</t>
+  </si>
+  <si>
+    <t>b',\xbc\xbb\x05\x1b\x88'</t>
+  </si>
+  <si>
+    <t>error of reading</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +758,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,64 +1097,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>mac_arr</v>
-      </c>
-      <c r="C1" t="str">
-        <v>mac_byte</v>
-      </c>
-      <c r="D1" t="str">
-        <v>remarks</v>
-      </c>
-      <c r="E1" t="str">
-        <v>issue</v>
-      </c>
-      <c r="F1" t="str">
-        <v>isMaster</v>
-      </c>
-      <c r="G1" t="str">
-        <v>availability</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>KT-1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>44, 188, 187, 5, 23, 36</v>
-      </c>
-      <c r="C2" t="str">
-        <v>b',\xbc\xbb\x05\x17$'</v>
-      </c>
-      <c r="D2" t="str">
-        <v>17 led not blinking</v>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>KT-2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>44, 188, 187, 5, 52, 208</v>
-      </c>
-      <c r="C3" t="str">
-        <v>b',\xbc\xbb\x054\xd0'</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -462,32 +1166,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>KT-3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>44, 188, 187, 5, 33, 8</v>
-      </c>
-      <c r="C4" t="str">
-        <v>b',\xbc\xbb\x05!\x08'</v>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>KT-4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>44, 188, 187, 5, 54, 236</v>
-      </c>
-      <c r="C5" t="str">
-        <v>b',\xbc\xbb\x056\xec'</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -496,15 +1200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>KT-5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>44, 188, 187, 6, 159, 228</v>
-      </c>
-      <c r="C6" t="str">
-        <v>b',\xbc\xbb\x06\x9f\xe4'</v>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -513,35 +1217,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>KT-6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>44, 188, 187, 5, 62, 252</v>
-      </c>
-      <c r="C7" t="str">
-        <v>b',\xbc\xbb\x05&gt;\xfc'</v>
-      </c>
-      <c r="D7" t="str">
-        <v>switch connection not work</v>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>KT-7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>44, 188, 187, 6, 42, 64</v>
-      </c>
-      <c r="C8" t="str">
-        <v>b',\xbc\xbb\x06*@'</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -550,32 +1254,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>KT-8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>44, 188, 187, 5, 56, 96</v>
-      </c>
-      <c r="C9" t="str">
-        <v>b',\xbc\xbb\x058`'</v>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>KT-9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>44, 188, 187, 6, 141, 104</v>
-      </c>
-      <c r="C10" t="str">
-        <v>b',\xbc\xbb\x06\x8dh'</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -584,15 +1288,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>KT-10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>44, 188, 187, 5, 53, 64</v>
-      </c>
-      <c r="C11" t="str">
-        <v>b',\xbc\xbb\x055@'</v>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -601,15 +1305,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>KT-11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>44, 188, 187, 5, 60, 196</v>
-      </c>
-      <c r="C12" t="str">
-        <v>b',\xbc\xbb\x05&lt;\xc4'</v>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -618,15 +1322,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>KT-12</v>
-      </c>
-      <c r="B13" t="str">
-        <v>44, 188, 187, 6, 158, 220</v>
-      </c>
-      <c r="C13" t="str">
-        <v>b',\xbc\xbb\x06\x9e\xdc'</v>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -635,15 +1339,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>KT-13</v>
-      </c>
-      <c r="B14" t="str">
-        <v>44, 188, 187, 7, 42, 116</v>
-      </c>
-      <c r="C14" t="str">
-        <v>b',\xbc\xbb\x07*t'</v>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -652,15 +1356,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>KT-14</v>
-      </c>
-      <c r="B15" t="str">
-        <v>44, 188, 187, 6, 135, 132</v>
-      </c>
-      <c r="C15" t="str">
-        <v>b',\xbc\xbb\x06\x87\x84'</v>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -669,15 +1373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>KT-15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>44, 188, 187, 5, 52, 244</v>
-      </c>
-      <c r="C16" t="str">
-        <v>b',\xbc\xbb\x054\xf4'</v>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -686,21 +1390,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>KT-16</v>
-      </c>
-      <c r="B17" t="str">
-        <v>44, 188, 187, 5, 33, 240</v>
-      </c>
-      <c r="C17" t="str">
-        <v>b',\xbc\xbb\x05!\xf0'</v>
-      </c>
-      <c r="D17" t="str">
-        <v>buzzer, relay not working</v>
-      </c>
-      <c r="E17" t="str">
-        <v>s</v>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -709,15 +1413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>KT-17</v>
-      </c>
-      <c r="B18" t="str">
-        <v>44, 188, 187, 5, 54, 156</v>
-      </c>
-      <c r="C18" t="str">
-        <v>b',\xbc\xbb\x056\x9c'</v>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -726,15 +1430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>KT-18</v>
-      </c>
-      <c r="B19" t="str">
-        <v>44, 188, 187, 5, 56, 160</v>
-      </c>
-      <c r="C19" t="str">
-        <v>b',\xbc\xbb\x058\xa0'</v>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -743,15 +1447,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>KT-19</v>
-      </c>
-      <c r="B20" t="str">
-        <v>44, 188, 187, 6, 147, 180</v>
-      </c>
-      <c r="C20" t="str">
-        <v>b',\xbc\xbb\x06\x93\xb4'</v>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -760,21 +1464,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>KT-20</v>
-      </c>
-      <c r="B21" t="str">
-        <v>44, 188, 187, 5, 55, 172</v>
-      </c>
-      <c r="C21" t="str">
-        <v>b',\xbc\xbb\x057\xac'</v>
-      </c>
-      <c r="D21" t="str">
-        <v>strip led</v>
-      </c>
-      <c r="E21" t="str">
-        <v>y</v>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -783,15 +1487,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>KT-21</v>
-      </c>
-      <c r="B22" t="str">
-        <v>44, 188, 187, 6, 160, 80</v>
-      </c>
-      <c r="C22" t="str">
-        <v>b',\xbc\xbb\x06\xa0P'</v>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -800,15 +1504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>KT-22</v>
-      </c>
-      <c r="B23" t="str">
-        <v>44, 188, 187, 6, 148, 88</v>
-      </c>
-      <c r="C23" t="str">
-        <v>b',\xbc\xbb\x06\x94X'</v>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -817,15 +1521,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>KT-23</v>
-      </c>
-      <c r="B24" t="str">
-        <v>44, 188, 187, 6, 147, 224</v>
-      </c>
-      <c r="C24" t="str">
-        <v>b',\xbc\xbb\x06\x93\xe0'</v>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -834,15 +1538,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>KT-24</v>
-      </c>
-      <c r="B25" t="str">
-        <v>44, 188, 187, 7, 44, 36</v>
-      </c>
-      <c r="C25" t="str">
-        <v>b',\xbc\xbb\x07,$'</v>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -851,21 +1555,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>KT-25</v>
-      </c>
-      <c r="B26" t="str">
-        <v>44, 188, 187, 5, 63, 44</v>
-      </c>
-      <c r="C26" t="str">
-        <v>b',\xbc\xbb\x05?,'</v>
-      </c>
-      <c r="D26" t="str">
-        <v>relay not working</v>
-      </c>
-      <c r="E26" t="str">
-        <v>y</v>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -874,15 +1578,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>KT-26</v>
-      </c>
-      <c r="B27" t="str">
-        <v>44, 188, 187, 6, 158, 36</v>
-      </c>
-      <c r="C27" t="str">
-        <v>b',\xbc\xbb\x06\x9e$'</v>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -891,15 +1595,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>KT-27</v>
-      </c>
-      <c r="B28" t="str">
-        <v>44, 188, 187, 5, 35, 20</v>
-      </c>
-      <c r="C28" t="str">
-        <v>b',\xbc\xbb\x05#\x14'</v>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -908,15 +1612,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>KT-28</v>
-      </c>
-      <c r="B29" t="str">
-        <v>44, 188, 187, 6, 84, 136</v>
-      </c>
-      <c r="C29" t="str">
-        <v>b',\xbc\xbb\x06T\x88'</v>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -925,15 +1629,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>KT-29</v>
-      </c>
-      <c r="B30" t="str">
-        <v>44, 188, 187, 6, 145, 172</v>
-      </c>
-      <c r="C30" t="str">
-        <v>b',\xbc\xbb\x06\x91\xac'</v>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -942,15 +1646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>KT-30</v>
-      </c>
-      <c r="B31" t="str">
-        <v>44, 188, 187, 5, 55, 24</v>
-      </c>
-      <c r="C31" t="str">
-        <v>b',\xbc\xbb\x057\x18'</v>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -959,15 +1663,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>KT-31</v>
-      </c>
-      <c r="B32" t="str">
-        <v>44, 188, 187, 5, 27, 180</v>
-      </c>
-      <c r="C32" t="str">
-        <v>b',\xbc\xbb\x05\x1b\xb4'</v>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -976,15 +1680,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>KT-32</v>
-      </c>
-      <c r="B33" t="str">
-        <v>44, 188, 187, 7, 46, 164</v>
-      </c>
-      <c r="C33" t="str">
-        <v>b',\xbc\xbb\x07.\xa4'</v>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -993,15 +1697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>KT-33</v>
-      </c>
-      <c r="B34" t="str">
-        <v>44, 188, 187, 5, 49, 112</v>
-      </c>
-      <c r="C34" t="str">
-        <v>b',\xbc\xbb\x051p'</v>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1010,21 +1714,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>KT-34</v>
-      </c>
-      <c r="B35" t="str">
-        <v>44, 188, 187, 6, 144, 240</v>
-      </c>
-      <c r="C35" t="str">
-        <v>b',\xbc\xbb\x06\x90\xf0'</v>
-      </c>
-      <c r="D35" t="str">
-        <v>relay not working</v>
-      </c>
-      <c r="E35" t="str">
-        <v>y</v>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1033,21 +1737,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>KT-35</v>
-      </c>
-      <c r="B36" t="str">
-        <v>44, 188, 187, 6, 235, 64</v>
-      </c>
-      <c r="C36" t="str">
-        <v>b',\xbc\xbb\x06\xeb@'</v>
-      </c>
-      <c r="D36" t="str">
-        <v>relay not working</v>
-      </c>
-      <c r="E36" t="str">
-        <v>y</v>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1056,18 +1760,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>KT-36</v>
-      </c>
-      <c r="B37" t="str">
-        <v>44, 188, 187, 5, 64, 140</v>
-      </c>
-      <c r="C37" t="str">
-        <v>b',\xbc\xbb\x05@\x8c'</v>
-      </c>
-      <c r="D37" t="str">
-        <v>buzzer volume is low</v>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1076,15 +1780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>KT-37</v>
-      </c>
-      <c r="B38" t="str">
-        <v>44, 188, 187, 5, 26, 148</v>
-      </c>
-      <c r="C38" t="str">
-        <v>b',\xbc\xbb\x05\x1a\x94'</v>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1093,15 +1797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>KT-38</v>
-      </c>
-      <c r="B39" t="str">
-        <v>44, 188, 187, 7, 36, 92</v>
-      </c>
-      <c r="C39" t="str">
-        <v>b',\xbc\xbb\x07$\\'</v>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1110,15 +1814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>KT-39</v>
-      </c>
-      <c r="B40" t="str">
-        <v>44, 188, 187, 5, 63, 16</v>
-      </c>
-      <c r="C40" t="str">
-        <v>b',\xbc\xbb\x05?\x10'</v>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1127,15 +1831,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>KT-40</v>
-      </c>
-      <c r="B41" t="str">
-        <v>44, 188, 187, 6, 239, 140</v>
-      </c>
-      <c r="C41" t="str">
-        <v>b',\xbc\xbb\x06\xef\x8c'</v>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1144,21 +1848,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>KT-41</v>
-      </c>
-      <c r="B42" t="str">
-        <v>44, 188, 187, 6, 159, 236</v>
-      </c>
-      <c r="C42" t="str">
-        <v>b',\xbc\xbb\x06\x9f\xec'</v>
-      </c>
-      <c r="D42" t="str">
-        <v>17 pin led not working</v>
-      </c>
-      <c r="E42" t="str">
-        <v>y</v>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1167,15 +1871,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>KT-42</v>
-      </c>
-      <c r="B43" t="str">
-        <v>44, 188, 187, 6, 146, 208</v>
-      </c>
-      <c r="C43" t="str">
-        <v>b',\xbc\xbb\x06\x92\xd0'</v>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1184,15 +1888,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>KT-43</v>
-      </c>
-      <c r="B44" t="str">
-        <v>44, 188, 187, 6, 146, 204</v>
-      </c>
-      <c r="C44" t="str">
-        <v>b',\xbc\xbb\x06\x92\xcc'</v>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1201,15 +1905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>KT-44</v>
-      </c>
-      <c r="B45" t="str">
-        <v>44, 188, 187, 7, 34, 20</v>
-      </c>
-      <c r="C45" t="str">
-        <v>b',\xbc\xbb\x07"\x14'</v>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1218,15 +1922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>KT-45</v>
-      </c>
-      <c r="B46" t="str">
-        <v>44, 188, 187, 5, 22, 228</v>
-      </c>
-      <c r="C46" t="str">
-        <v>b',\xbc\xbb\x05\x16\xe4'</v>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1235,21 +1939,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>KT-46</v>
-      </c>
-      <c r="B47" t="str">
-        <v>44, 188, 187, 5, 33, 28</v>
-      </c>
-      <c r="C47" t="str">
-        <v>b',\xbc\xbb\x05!\x1c'</v>
-      </c>
-      <c r="D47" t="str">
-        <v>buzzer low volume</v>
-      </c>
-      <c r="E47" t="str">
-        <v>y</v>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1258,15 +1962,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>KT-47</v>
-      </c>
-      <c r="B48" t="str">
-        <v>44, 188, 187, 6, 148, 116</v>
-      </c>
-      <c r="C48" t="str">
-        <v>b',\xbc\xbb\x06\x94t'</v>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1275,15 +1979,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>KT-48</v>
-      </c>
-      <c r="B49" t="str">
-        <v>44, 188, 187, 5, 55, 185</v>
-      </c>
-      <c r="C49" t="str">
-        <v>b',\xbc\xbb\x057\xb8'</v>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>160</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1292,21 +1996,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>KT-49</v>
-      </c>
-      <c r="B50" t="str">
-        <v>252, 232, 192, 214, 159, 240</v>
-      </c>
-      <c r="C50" t="str">
-        <v>b'\xfc\xe8\xc0\xd6\x9f\xf0'</v>
-      </c>
-      <c r="D50" t="str">
-        <v>button not working</v>
-      </c>
-      <c r="E50" t="str">
-        <v>y</v>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1315,21 +2019,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>KT-50</v>
-      </c>
-      <c r="B51" t="str">
-        <v>44, 188, 187, 5, 49, 172</v>
-      </c>
-      <c r="C51" t="str">
-        <v>b',\xbc\xbb\x051\xac'</v>
-      </c>
-      <c r="D51" t="str">
-        <v>Brownout detector was triggered</v>
-      </c>
-      <c r="E51" t="str">
-        <v>y</v>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1338,15 +2042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>KT-51</v>
-      </c>
-      <c r="B52" t="str">
-        <v>44, 188, 187, 5, 224, 184</v>
-      </c>
-      <c r="C52" t="str">
-        <v>b',\xbc\xbb\x05\xe0\xb8'</v>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1355,21 +2059,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>KT-52</v>
-      </c>
-      <c r="B53" t="str">
-        <v>44, 188, 187, 6, 160, 188</v>
-      </c>
-      <c r="C53" t="str">
-        <v>b',\xbc\xbb\x06\xa0\xbc'</v>
-      </c>
-      <c r="D53" t="str">
-        <v>reset button not working</v>
-      </c>
-      <c r="E53" t="str">
-        <v>y</v>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1378,21 +2082,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>KT-53</v>
-      </c>
-      <c r="B54" t="str">
-        <v>44, 188, 187, 5, 23, 200</v>
-      </c>
-      <c r="C54" t="str">
-        <v>b',\xbc\xbb\x05\x17\xc8'</v>
-      </c>
-      <c r="D54" t="str">
-        <v>buzzer low volume</v>
-      </c>
-      <c r="E54" t="str">
-        <v>s</v>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1401,18 +2105,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>KT-54</v>
-      </c>
-      <c r="B55" t="str">
-        <v>252, 232, 192, 215, 90, 192</v>
-      </c>
-      <c r="C55" t="str">
-        <v>b'\xfc\xe8\xc0\xd7Z\xc0'</v>
-      </c>
-      <c r="D55" t="str">
-        <v>button not working</v>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1421,15 +2125,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>KT-55</v>
-      </c>
-      <c r="B56" t="str">
-        <v>44, 188, 187, 7, 32, 156</v>
-      </c>
-      <c r="C56" t="str">
-        <v>b',\xbc\xbb\x07 \x9c'</v>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1438,15 +2142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>KT-56</v>
-      </c>
-      <c r="B57" t="str">
-        <v>44, 188, 187, 6, 141, 248</v>
-      </c>
-      <c r="C57" t="str">
-        <v>b',\xbc\xbb\x06\x8d\xf8'</v>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1455,15 +2159,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>KT-57</v>
-      </c>
-      <c r="B58" t="str">
-        <v>44, 188, 187, 7, 9, 208</v>
-      </c>
-      <c r="C58" t="str">
-        <v>b',\xbc\xbb\x07\t\xd0'</v>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -1472,15 +2176,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>KT-58</v>
-      </c>
-      <c r="B59" t="str">
-        <v>44, 188, 187, 6, 251, 12</v>
-      </c>
-      <c r="C59" t="str">
-        <v>b',\xbc\xbb\x06\xfb\x0c'</v>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>193</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1489,15 +2193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>KT-59</v>
-      </c>
-      <c r="B60" t="str">
-        <v>44, 188, 187, 7, 53, 32</v>
-      </c>
-      <c r="C60" t="str">
-        <v>b',\xbc\xbb\x075 '</v>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1506,15 +2210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>KT-60</v>
-      </c>
-      <c r="B61" t="str">
-        <v>44, 188, 187, 5, 62, 84</v>
-      </c>
-      <c r="C61" t="str">
-        <v>b',\xbc\xbb\x05&gt;T'</v>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>199</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1523,15 +2227,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>KT-61</v>
-      </c>
-      <c r="B62" t="str">
-        <v>44, 188, 187, 5, 49, 124</v>
-      </c>
-      <c r="C62" t="str">
-        <v>b',\xbc\xbb\x051|'</v>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>202</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1540,15 +2244,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>KT-62</v>
-      </c>
-      <c r="B63" t="str">
-        <v>44, 188, 187, 6, 160, 76</v>
-      </c>
-      <c r="C63" t="str">
-        <v>b',\xbc\xbb\x06\xa0L'</v>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1557,18 +2261,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>KT-63</v>
-      </c>
-      <c r="B64" t="str">
-        <v>44, 188, 187, 5, 66, 120</v>
-      </c>
-      <c r="C64" t="str">
-        <v>b',\xbc\xbb\x05Bx'</v>
-      </c>
-      <c r="D64" t="str">
-        <v xml:space="preserve"> download not came restart button is not working</v>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -1577,15 +2281,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>KT-64</v>
-      </c>
-      <c r="B65" t="str">
-        <v>44, 188, 187, 5, 57, 24</v>
-      </c>
-      <c r="C65" t="str">
-        <v>b',\xbc\xbb\x059\x18'</v>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -1594,18 +2298,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>KT-65</v>
-      </c>
-      <c r="B66" t="str">
-        <v>44, 188, 187, 6, 159, 52</v>
-      </c>
-      <c r="C66" t="str">
-        <v>b',\xbc\xbb\x06\x9f4'</v>
-      </c>
-      <c r="D66" t="str">
-        <v xml:space="preserve"> download not came restart button is not working</v>
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1614,18 +2318,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>KT-66</v>
-      </c>
-      <c r="B67" t="str">
-        <v>44, 188, 187, 6, 158, 48</v>
-      </c>
-      <c r="C67" t="str">
-        <v>b',\xbc\xbb\x06\x9e0'</v>
-      </c>
-      <c r="D67" t="str">
-        <v>boot not working</v>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" t="s">
+        <v>219</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1634,18 +2338,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>KT-67</v>
-      </c>
-      <c r="B68" t="str">
-        <v>44, 188, 187, 5, 24, 204</v>
-      </c>
-      <c r="C68" t="str">
-        <v>b',\xbc\xbb\x05\x18\xcc'</v>
-      </c>
-      <c r="D68" t="str">
-        <v xml:space="preserve">buzzer low volume and relay </v>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -1654,15 +2358,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>KT-68</v>
-      </c>
-      <c r="B69" t="str">
-        <v>44, 188, 187, 7, 50, 236</v>
-      </c>
-      <c r="C69" t="str">
-        <v>b',\xbc\xbb\x072\xec'</v>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1671,15 +2375,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>KT-69</v>
-      </c>
-      <c r="B70" t="str">
-        <v>44, 188, 187, 7, 47, 247</v>
-      </c>
-      <c r="C70" t="str">
-        <v>b',\xbc\xbb\x07/\xf8'</v>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1688,18 +2392,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>KT-70</v>
-      </c>
-      <c r="B71" t="str">
-        <v>44, 188, 187, 5, 27, 136</v>
-      </c>
-      <c r="C71" t="str">
-        <v>b',\xbc\xbb\x05\x1b\x88'</v>
-      </c>
-      <c r="D71" t="str">
-        <v>error of reading</v>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1709,8 +2413,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G71"/>
+    <ignoredError sqref="A1:G1 A31:G71 A4:E30 G24:G30 A3:G3 A2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/led_mac_data.xlsx
+++ b/server/led_mac_data.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -646,10 +646,10 @@
         <v>b',\xbc\xbb\x07*t'</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">

--- a/server/led_mac_data.xlsx
+++ b/server/led_mac_data.xlsx
@@ -439,10 +439,10 @@
         <v>17 led not blinking</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>b',\xbc\xbb\x054\xd0'</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>

--- a/server/led_mac_data.xlsx
+++ b/server/led_mac_data.xlsx
@@ -456,7 +456,7 @@
         <v>b',\xbc\xbb\x054\xd0'</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
